--- a/final_results_numbers.xlsx
+++ b/final_results_numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Puyi\Desktop\Codi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84FC31E-380C-4B03-AAFF-07AE142C4765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4456EF43-2074-4872-9EFA-E2D86419E097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4BFBF7EC-140D-422A-B881-0ACBD84F59DA}"/>
   </bookViews>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E237C8-69F9-49DD-9A41-517D1339BD55}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1044,7 +1044,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="10">
-        <v>63.600906240467097</v>
+        <v>74.600906240467097</v>
       </c>
       <c r="D24" s="12">
         <v>63.000144905483502</v>
